--- a/dataFiles/onboarding/onboardingMH - Negative.xlsx
+++ b/dataFiles/onboarding/onboardingMH - Negative.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="187">
   <si>
     <t>WelcomeOnboarding</t>
   </si>
@@ -441,133 +441,145 @@
     <t>Yes</t>
   </si>
   <si>
+    <t>InvalidCellNumber</t>
+  </si>
+  <si>
+    <t>InvalidHomePhoneNumber</t>
+  </si>
+  <si>
+    <t>InvalidFirstName</t>
+  </si>
+  <si>
+    <t>InvalidLastName</t>
+  </si>
+  <si>
+    <t>InvalidRelationCellNumber</t>
+  </si>
+  <si>
+    <t>InvalidPassword</t>
+  </si>
+  <si>
+    <t>InvalidPostal</t>
+  </si>
+  <si>
+    <t>InvalidHealthCard</t>
+  </si>
+  <si>
+    <t>address1</t>
+  </si>
+  <si>
+    <t>unit1</t>
+  </si>
+  <si>
+    <t>Please enter valid home phone number;Phone number must be at least 10 digits long</t>
+  </si>
+  <si>
+    <t>Please enter valid cell phone number</t>
+  </si>
+  <si>
+    <t>Please enter valid cell phone number;Phone number must be at least 10 digits long</t>
+  </si>
+  <si>
+    <t>InvalidFirstNameText</t>
+  </si>
+  <si>
+    <t>InvalidLastNameText</t>
+  </si>
+  <si>
+    <t>InvalidRelation</t>
+  </si>
+  <si>
+    <t>InvalidRelationCellPhone</t>
+  </si>
+  <si>
+    <t>InvalidRelationText</t>
+  </si>
+  <si>
+    <t>InvalidHomePhoneNumberText</t>
+  </si>
+  <si>
+    <t>InvalidCellPhoneNumberText</t>
+  </si>
+  <si>
+    <t>InvalidHealthCardNumberText</t>
+  </si>
+  <si>
+    <t>InvalidCity</t>
+  </si>
+  <si>
+    <t>Empty</t>
+  </si>
+  <si>
+    <t>InvalidAddress</t>
+  </si>
+  <si>
+    <t>To verify the user enter only empty space</t>
+  </si>
+  <si>
+    <t>To verify the user enter the special charaters only</t>
+  </si>
+  <si>
+    <t>To verify the user enter the character and number only</t>
+  </si>
+  <si>
+    <t>To verify the user enter the numbers only</t>
+  </si>
+  <si>
+    <t>!@#$%^</t>
+  </si>
+  <si>
+    <t>AFcd1234</t>
+  </si>
+  <si>
+    <t>ADgh6465</t>
+  </si>
+  <si>
+    <t>1323455</t>
+  </si>
+  <si>
+    <t>1234567</t>
+  </si>
+  <si>
+    <t>'Empty</t>
+  </si>
+  <si>
+    <t>prabhaautojehg2761@mailinator.com</t>
+  </si>
+  <si>
+    <t>prabhaAutoWjOE6633@mailinator.com</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
-    <t>InvalidCellNumber</t>
-  </si>
-  <si>
-    <t>InvalidHomePhoneNumber</t>
-  </si>
-  <si>
-    <t>InvalidFirstName</t>
-  </si>
-  <si>
-    <t>InvalidLastName</t>
-  </si>
-  <si>
-    <t>InvalidRelationCellNumber</t>
-  </si>
-  <si>
-    <t>InvalidPassword</t>
-  </si>
-  <si>
-    <t>InvalidPostal</t>
-  </si>
-  <si>
-    <t>InvalidHealthCard</t>
-  </si>
-  <si>
-    <t>address1</t>
-  </si>
-  <si>
-    <t>unit1</t>
-  </si>
-  <si>
-    <t>Please enter valid home phone number;Phone number must be at least 10 digits long</t>
-  </si>
-  <si>
-    <t>Please enter valid cell phone number</t>
-  </si>
-  <si>
-    <t>Please enter valid cell phone number;Phone number must be at least 10 digits long</t>
-  </si>
-  <si>
-    <t>InvalidFirstNameText</t>
-  </si>
-  <si>
-    <t>InvalidLastNameText</t>
+    <t>prabhaAutonfXU8311@mailinator.com</t>
+  </si>
+  <si>
+    <t>Please enter valid first name;</t>
+  </si>
+  <si>
+    <t>Please enter valid last name;</t>
+  </si>
+  <si>
+    <t>Please enter relation;</t>
+  </si>
+  <si>
+    <t>Please enter valid health card number;</t>
+  </si>
+  <si>
+    <t>Please enter valid cell phone number;</t>
+  </si>
+  <si>
+    <t>Please enter valid health card number</t>
+  </si>
+  <si>
+    <t>Please enter relation</t>
+  </si>
+  <si>
+    <t>Please enter valid last name</t>
   </si>
   <si>
     <t>Please enter valid first name</t>
-  </si>
-  <si>
-    <t>Please enter valid last name</t>
-  </si>
-  <si>
-    <t>InvalidRelation</t>
-  </si>
-  <si>
-    <t>InvalidRelationCellPhone</t>
-  </si>
-  <si>
-    <t>Please enter relation</t>
-  </si>
-  <si>
-    <t>InvalidRelationText</t>
-  </si>
-  <si>
-    <t>Please enter valid health card number</t>
-  </si>
-  <si>
-    <t>InvalidHomePhoneNumberText</t>
-  </si>
-  <si>
-    <t>InvalidCellPhoneNumberText</t>
-  </si>
-  <si>
-    <t>InvalidHealthCardNumberText</t>
-  </si>
-  <si>
-    <t>InvalidCity</t>
-  </si>
-  <si>
-    <t>Empty</t>
-  </si>
-  <si>
-    <t>InvalidAddress</t>
-  </si>
-  <si>
-    <t>To verify the user enter only empty space</t>
-  </si>
-  <si>
-    <t>To verify the user enter the special charaters only</t>
-  </si>
-  <si>
-    <t>To verify the user enter the character and number only</t>
-  </si>
-  <si>
-    <t>To verify the user enter the numbers only</t>
-  </si>
-  <si>
-    <t>!@#$%^</t>
-  </si>
-  <si>
-    <t>AFcd1234</t>
-  </si>
-  <si>
-    <t>ADgh6465</t>
-  </si>
-  <si>
-    <t>prabhaAutoLiDk2496@mailinator.com</t>
-  </si>
-  <si>
-    <t>1323455</t>
-  </si>
-  <si>
-    <t>1234567</t>
-  </si>
-  <si>
-    <t>'Empty</t>
-  </si>
-  <si>
-    <t>prabhaAutoFeZd5681@mailinator.com</t>
-  </si>
-  <si>
-    <t>prabhaAutoPQWk6854@mailinator.com</t>
-  </si>
-  <si>
-    <t>prabhaAutoRTqk4947@mailinator.com</t>
   </si>
 </sst>
 </file>
@@ -680,9 +692,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -721,6 +730,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1004,16 +1016,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CU5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="BQ5" sqref="A1:CU5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="97" width="9.140625" style="13"/>
-    <col min="98" max="98" width="19.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="35.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="100" max="16384" width="9.140625" style="13"/>
+    <col min="1" max="1" width="9.140625" style="12"/>
+    <col min="2" max="2" width="18" style="12" customWidth="1"/>
+    <col min="3" max="3" width="29" style="12" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" style="12"/>
+    <col min="7" max="7" width="10.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="97" width="9.140625" style="12"/>
+    <col min="98" max="98" width="19.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="35.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="100" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:99" ht="63" x14ac:dyDescent="0.25">
@@ -1041,14 +1063,14 @@
       <c r="H1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="9" t="s">
-        <v>142</v>
+      <c r="I1" s="8" t="s">
+        <v>141</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="9" t="s">
-        <v>141</v>
+      <c r="K1" s="8" t="s">
+        <v>140</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>4</v>
@@ -1074,32 +1096,32 @@
       <c r="S1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="9" t="s">
-        <v>143</v>
+      <c r="T1" s="8" t="s">
+        <v>142</v>
       </c>
       <c r="U1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="V1" s="9" t="s">
-        <v>144</v>
+      <c r="V1" s="8" t="s">
+        <v>143</v>
       </c>
       <c r="W1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="X1" s="9" t="s">
-        <v>158</v>
+      <c r="X1" s="8" t="s">
+        <v>155</v>
       </c>
       <c r="Y1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Z1" s="9" t="s">
-        <v>145</v>
+      <c r="Z1" s="8" t="s">
+        <v>144</v>
       </c>
       <c r="AA1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AB1" s="9" t="s">
-        <v>168</v>
+      <c r="AB1" s="8" t="s">
+        <v>163</v>
       </c>
       <c r="AC1" s="3" t="s">
         <v>16</v>
@@ -1107,19 +1129,19 @@
       <c r="AD1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AE1" s="9" t="s">
-        <v>166</v>
+      <c r="AE1" s="8" t="s">
+        <v>161</v>
       </c>
       <c r="AF1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AG1" s="10" t="s">
+      <c r="AG1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="AH1" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="AI1" s="11" t="s">
+      <c r="AH1" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="AI1" s="10" t="s">
         <v>20</v>
       </c>
       <c r="AJ1" s="3" t="s">
@@ -1137,8 +1159,8 @@
       <c r="AN1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AO1" s="9" t="s">
-        <v>148</v>
+      <c r="AO1" s="8" t="s">
+        <v>147</v>
       </c>
       <c r="AP1" s="3" t="s">
         <v>26</v>
@@ -1236,99 +1258,99 @@
       <c r="BU1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="BV1" s="12" t="s">
+      <c r="BV1" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="BW1" s="12" t="s">
+      <c r="BW1" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="BX1" s="12" t="s">
+      <c r="BX1" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="BY1" s="12" t="s">
+      <c r="BY1" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="BZ1" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="CA1" s="12" t="s">
+      <c r="BZ1" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="CA1" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="CB1" s="12" t="s">
+      <c r="CB1" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="CC1" s="12" t="s">
+      <c r="CC1" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="CD1" s="12" t="s">
+      <c r="CD1" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="CE1" s="12" t="s">
+      <c r="CE1" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="CF1" s="12" t="s">
+      <c r="CF1" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="CG1" s="12" t="s">
+      <c r="CG1" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="CH1" s="12" t="s">
+      <c r="CH1" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="CI1" s="12" t="s">
+      <c r="CI1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="CJ1" s="12" t="s">
+      <c r="CJ1" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="CK1" s="12" t="s">
+      <c r="CK1" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="CL1" s="12" t="s">
+      <c r="CL1" s="11" t="s">
         <v>73</v>
       </c>
       <c r="CM1" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="CN1" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="CN1" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="CO1" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="CP1" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="CQ1" s="9" t="s">
+      <c r="CO1" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="CP1" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="CQ1" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="CR1" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="CR1" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="CS1" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="CT1" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="CU1" s="9" t="s">
-        <v>165</v>
+      <c r="CS1" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="CT1" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="CU1" s="8" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:99" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>169</v>
+      <c r="B2" s="6" t="s">
+        <v>164</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D2" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="D2" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>119</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -1340,14 +1362,14 @@
       <c r="H2" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>167</v>
+      <c r="I2" s="5" t="s">
+        <v>162</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="K2" s="6" t="s">
-        <v>167</v>
+      <c r="K2" s="5" t="s">
+        <v>162</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>77</v>
@@ -1373,32 +1395,32 @@
       <c r="S2" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="T2" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="U2" s="6" t="s">
+      <c r="T2" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="U2" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="V2" s="6" t="s">
-        <v>167</v>
+      <c r="V2" s="5" t="s">
+        <v>162</v>
       </c>
       <c r="W2" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="X2" s="6" t="s">
-        <v>167</v>
+      <c r="X2" s="5" t="s">
+        <v>162</v>
       </c>
       <c r="Y2" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="Z2" s="6" t="s">
-        <v>167</v>
+      <c r="Z2" s="5" t="s">
+        <v>162</v>
       </c>
       <c r="AA2" s="2" t="s">
         <v>77</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="AC2" s="2" t="s">
         <v>89</v>
@@ -1406,8 +1428,8 @@
       <c r="AD2" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="AE2" s="6" t="s">
-        <v>167</v>
+      <c r="AE2" s="5" t="s">
+        <v>162</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>91</v>
@@ -1415,8 +1437,8 @@
       <c r="AG2" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="AH2" s="6" t="s">
-        <v>167</v>
+      <c r="AH2" s="5" t="s">
+        <v>162</v>
       </c>
       <c r="AI2" s="2" t="s">
         <v>93</v>
@@ -1436,8 +1458,8 @@
       <c r="AN2" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="AO2" s="6" t="s">
-        <v>167</v>
+      <c r="AO2" s="5" t="s">
+        <v>162</v>
       </c>
       <c r="AP2" s="2" t="s">
         <v>96</v>
@@ -1481,149 +1503,149 @@
       <c r="BC2" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="BD2" s="16" t="s">
+      <c r="BD2" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="BE2" s="16" t="s">
+      <c r="BE2" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="BF2" s="16" t="s">
+      <c r="BF2" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="BG2" s="16" t="s">
+      <c r="BG2" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="BH2" s="16" t="s">
+      <c r="BH2" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="BI2" s="16" t="s">
+      <c r="BI2" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="BJ2" s="16" t="s">
+      <c r="BJ2" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="BK2" s="16" t="s">
+      <c r="BK2" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="BL2" s="16" t="s">
+      <c r="BL2" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="BM2" s="16" t="s">
+      <c r="BM2" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="BN2" s="16" t="s">
+      <c r="BN2" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="BO2" s="16" t="s">
+      <c r="BO2" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="BP2" s="16" t="s">
+      <c r="BP2" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="BQ2" s="16" t="s">
+      <c r="BQ2" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="BR2" s="16" t="s">
+      <c r="BR2" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="BS2" s="16" t="s">
+      <c r="BS2" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="BT2" s="16" t="s">
+      <c r="BT2" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="BU2" s="16" t="s">
+      <c r="BU2" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="BV2" s="6" t="s">
+      <c r="BV2" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="BW2" s="6" t="s">
+      <c r="BW2" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="BX2" s="6" t="s">
+      <c r="BX2" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="BY2" s="6" t="s">
+      <c r="BY2" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="BZ2" s="6" t="s">
+      <c r="BZ2" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="CA2" s="6" t="s">
+      <c r="CA2" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="CB2" s="6" t="s">
+      <c r="CB2" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="CC2" s="6" t="s">
+      <c r="CC2" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="CD2" s="6" t="s">
+      <c r="CD2" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="CE2" s="6" t="s">
+      <c r="CE2" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="CF2" s="6" t="s">
+      <c r="CF2" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="CG2" s="6" t="s">
+      <c r="CG2" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="CH2" s="6" t="s">
+      <c r="CH2" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="CI2" s="6" t="s">
+      <c r="CI2" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="CJ2" s="6" t="s">
+      <c r="CJ2" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="CK2" s="6" t="s">
+      <c r="CK2" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="CL2" s="6" t="s">
+      <c r="CL2" s="5" t="s">
         <v>129</v>
       </c>
       <c r="CM2" s="2"/>
       <c r="CN2" s="2"/>
-      <c r="CO2" s="6" t="s">
+      <c r="CO2" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="CP2" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="CQ2" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="CR2" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="CS2" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="CP2" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="CQ2" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="CR2" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="CS2" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="CT2" s="2" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="CU2" s="2" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:99" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>170</v>
+      <c r="B3" s="7" t="s">
+        <v>165</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E3" s="15" t="s">
+      <c r="D3" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>119</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -1635,14 +1657,14 @@
       <c r="H3" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>173</v>
+      <c r="I3" s="5" t="s">
+        <v>168</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="K3" s="6" t="s">
-        <v>173</v>
+      <c r="K3" s="5" t="s">
+        <v>168</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>77</v>
@@ -1668,32 +1690,32 @@
       <c r="S3" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="T3" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="U3" s="6" t="s">
+      <c r="T3" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="U3" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="V3" s="6" t="s">
-        <v>173</v>
+      <c r="V3" s="5" t="s">
+        <v>168</v>
       </c>
       <c r="W3" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="X3" s="6" t="s">
-        <v>173</v>
+      <c r="X3" s="5" t="s">
+        <v>168</v>
       </c>
       <c r="Y3" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="Z3" s="6" t="s">
-        <v>173</v>
+      <c r="Z3" s="5" t="s">
+        <v>168</v>
       </c>
       <c r="AA3" s="2" t="s">
         <v>77</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="AC3" s="2" t="s">
         <v>89</v>
@@ -1702,7 +1724,7 @@
         <v>90</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="AF3" s="2" t="s">
         <v>91</v>
@@ -1710,8 +1732,8 @@
       <c r="AG3" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="AH3" s="6" t="s">
-        <v>173</v>
+      <c r="AH3" s="5" t="s">
+        <v>168</v>
       </c>
       <c r="AI3" s="2" t="s">
         <v>93</v>
@@ -1731,8 +1753,8 @@
       <c r="AN3" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="AO3" s="6" t="s">
-        <v>173</v>
+      <c r="AO3" s="5" t="s">
+        <v>168</v>
       </c>
       <c r="AP3" s="2" t="s">
         <v>96</v>
@@ -1776,149 +1798,149 @@
       <c r="BC3" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="BD3" s="16" t="s">
+      <c r="BD3" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="BE3" s="16" t="s">
+      <c r="BE3" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="BF3" s="16" t="s">
+      <c r="BF3" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="BG3" s="16" t="s">
+      <c r="BG3" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="BH3" s="16" t="s">
+      <c r="BH3" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="BI3" s="16" t="s">
+      <c r="BI3" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="BJ3" s="16" t="s">
+      <c r="BJ3" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="BK3" s="16" t="s">
+      <c r="BK3" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="BL3" s="16" t="s">
+      <c r="BL3" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="BM3" s="16" t="s">
+      <c r="BM3" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="BN3" s="16" t="s">
+      <c r="BN3" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="BO3" s="16" t="s">
+      <c r="BO3" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="BP3" s="16" t="s">
+      <c r="BP3" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="BQ3" s="16" t="s">
+      <c r="BQ3" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="BR3" s="16" t="s">
+      <c r="BR3" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="BS3" s="16" t="s">
+      <c r="BS3" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="BT3" s="16" t="s">
+      <c r="BT3" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="BU3" s="16" t="s">
+      <c r="BU3" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="BV3" s="6" t="s">
+      <c r="BV3" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="BW3" s="6" t="s">
+      <c r="BW3" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="BX3" s="6" t="s">
+      <c r="BX3" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="BY3" s="6" t="s">
+      <c r="BY3" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="BZ3" s="6" t="s">
+      <c r="BZ3" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="CA3" s="6" t="s">
+      <c r="CA3" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="CB3" s="6" t="s">
+      <c r="CB3" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="CC3" s="6" t="s">
+      <c r="CC3" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="CD3" s="6" t="s">
+      <c r="CD3" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="CE3" s="6" t="s">
+      <c r="CE3" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="CF3" s="6" t="s">
+      <c r="CF3" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="CG3" s="6" t="s">
+      <c r="CG3" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="CH3" s="6" t="s">
+      <c r="CH3" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="CI3" s="6" t="s">
+      <c r="CI3" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="CJ3" s="6" t="s">
+      <c r="CJ3" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="CK3" s="6" t="s">
+      <c r="CK3" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="CL3" s="6" t="s">
+      <c r="CL3" s="5" t="s">
         <v>129</v>
       </c>
       <c r="CM3" s="2"/>
       <c r="CN3" s="2"/>
-      <c r="CO3" s="6" t="s">
+      <c r="CO3" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="CP3" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="CQ3" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="CR3" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="CS3" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="CP3" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="CQ3" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="CR3" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="CS3" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="CT3" s="2" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="CU3" s="2" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:99" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>172</v>
+      <c r="B4" s="7" t="s">
+        <v>167</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="E4" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="E4" s="14" t="s">
         <v>119</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -1930,13 +1952,13 @@
       <c r="H4" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="5" t="s">
         <v>84</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="5" t="s">
         <v>84</v>
       </c>
       <c r="L4" s="1" t="s">
@@ -1963,32 +1985,32 @@
       <c r="S4" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="T4" s="6" t="s">
+      <c r="T4" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="U4" s="6" t="s">
+      <c r="U4" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="V4" s="6" t="s">
-        <v>178</v>
+      <c r="V4" s="5" t="s">
+        <v>172</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="X4" s="6" t="s">
-        <v>177</v>
+      <c r="X4" s="5" t="s">
+        <v>171</v>
       </c>
       <c r="Y4" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="Z4" s="6" t="s">
+      <c r="Z4" s="5" t="s">
         <v>84</v>
       </c>
       <c r="AA4" s="2" t="s">
         <v>77</v>
       </c>
       <c r="AB4" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="AC4" s="2" t="s">
         <v>89</v>
@@ -1997,7 +2019,7 @@
         <v>90</v>
       </c>
       <c r="AE4" s="2" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="AF4" s="2" t="s">
         <v>91</v>
@@ -2005,7 +2027,7 @@
       <c r="AG4" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="AH4" s="6" t="s">
+      <c r="AH4" s="5" t="s">
         <v>84</v>
       </c>
       <c r="AI4" s="2" t="s">
@@ -2026,7 +2048,7 @@
       <c r="AN4" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="AO4" s="6" t="s">
+      <c r="AO4" s="5" t="s">
         <v>84</v>
       </c>
       <c r="AP4" s="2" t="s">
@@ -2071,149 +2093,149 @@
       <c r="BC4" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="BD4" s="16" t="s">
+      <c r="BD4" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="BE4" s="16" t="s">
+      <c r="BE4" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="BF4" s="16" t="s">
+      <c r="BF4" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="BG4" s="16" t="s">
+      <c r="BG4" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="BH4" s="16" t="s">
+      <c r="BH4" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="BI4" s="16" t="s">
+      <c r="BI4" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="BJ4" s="16" t="s">
+      <c r="BJ4" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="BK4" s="16" t="s">
+      <c r="BK4" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="BL4" s="16" t="s">
+      <c r="BL4" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="BM4" s="16" t="s">
+      <c r="BM4" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="BN4" s="16" t="s">
+      <c r="BN4" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="BO4" s="16" t="s">
+      <c r="BO4" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="BP4" s="16" t="s">
+      <c r="BP4" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="BQ4" s="16" t="s">
+      <c r="BQ4" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="BR4" s="16" t="s">
+      <c r="BR4" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="BS4" s="16" t="s">
+      <c r="BS4" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="BT4" s="16" t="s">
+      <c r="BT4" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="BU4" s="16" t="s">
+      <c r="BU4" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="BV4" s="6" t="s">
+      <c r="BV4" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="BW4" s="6" t="s">
+      <c r="BW4" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="BX4" s="6" t="s">
+      <c r="BX4" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="BY4" s="6" t="s">
+      <c r="BY4" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="BZ4" s="6" t="s">
+      <c r="BZ4" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="CA4" s="6" t="s">
+      <c r="CA4" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="CB4" s="6" t="s">
+      <c r="CB4" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="CC4" s="6" t="s">
+      <c r="CC4" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="CD4" s="6" t="s">
+      <c r="CD4" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="CE4" s="6" t="s">
+      <c r="CE4" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="CF4" s="6" t="s">
+      <c r="CF4" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="CG4" s="6" t="s">
+      <c r="CG4" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="CH4" s="6" t="s">
+      <c r="CH4" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="CI4" s="6" t="s">
+      <c r="CI4" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="CJ4" s="6" t="s">
+      <c r="CJ4" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="CK4" s="6" t="s">
+      <c r="CK4" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="CL4" s="6" t="s">
+      <c r="CL4" s="5" t="s">
         <v>129</v>
       </c>
       <c r="CM4" s="2"/>
       <c r="CN4" s="2"/>
-      <c r="CO4" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="CP4" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="CQ4" s="6" t="s">
-        <v>156</v>
+      <c r="CO4" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="CP4" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="CQ4" s="5" t="s">
+        <v>178</v>
       </c>
       <c r="CR4" s="2" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="CS4" s="2" t="s">
-        <v>152</v>
+        <v>182</v>
       </c>
       <c r="CT4" s="2" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="CU4" s="2" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:99" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>171</v>
+      <c r="B5" s="7" t="s">
+        <v>166</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="E5" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="E5" s="14" t="s">
         <v>119</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -2225,14 +2247,14 @@
       <c r="H5" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="I5" s="6" t="s">
-        <v>174</v>
+      <c r="I5" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="K5" s="6" t="s">
-        <v>174</v>
+      <c r="K5" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>77</v>
@@ -2258,32 +2280,32 @@
       <c r="S5" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="T5" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="U5" s="6" t="s">
+      <c r="T5" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="U5" s="5" t="s">
         <v>85</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="X5" s="6" t="s">
-        <v>167</v>
+      <c r="X5" s="5" t="s">
+        <v>162</v>
       </c>
       <c r="Y5" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="Z5" s="6" t="s">
+      <c r="Z5" s="5" t="s">
         <v>88</v>
       </c>
       <c r="AA5" s="2" t="s">
         <v>77</v>
       </c>
       <c r="AB5" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="AC5" s="2" t="s">
         <v>89</v>
@@ -2292,7 +2314,7 @@
         <v>90</v>
       </c>
       <c r="AE5" s="2" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="AF5" s="2" t="s">
         <v>91</v>
@@ -2300,8 +2322,8 @@
       <c r="AG5" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="AH5" s="6" t="s">
-        <v>174</v>
+      <c r="AH5" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="AI5" s="2" t="s">
         <v>93</v>
@@ -2321,8 +2343,8 @@
       <c r="AN5" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="AO5" s="6" t="s">
-        <v>174</v>
+      <c r="AO5" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="AP5" s="2" t="s">
         <v>96</v>
@@ -2366,133 +2388,133 @@
       <c r="BC5" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="BD5" s="16" t="s">
+      <c r="BD5" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="BE5" s="16" t="s">
+      <c r="BE5" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="BF5" s="16" t="s">
+      <c r="BF5" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="BG5" s="16" t="s">
+      <c r="BG5" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="BH5" s="16" t="s">
+      <c r="BH5" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="BI5" s="16" t="s">
+      <c r="BI5" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="BJ5" s="16" t="s">
+      <c r="BJ5" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="BK5" s="16" t="s">
+      <c r="BK5" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="BL5" s="16" t="s">
+      <c r="BL5" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="BM5" s="16" t="s">
+      <c r="BM5" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="BN5" s="16" t="s">
+      <c r="BN5" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="BO5" s="16" t="s">
+      <c r="BO5" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="BP5" s="16" t="s">
+      <c r="BP5" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="BQ5" s="16" t="s">
+      <c r="BQ5" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="BR5" s="16" t="s">
+      <c r="BR5" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="BS5" s="16" t="s">
+      <c r="BS5" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="BT5" s="16" t="s">
+      <c r="BT5" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="BU5" s="16" t="s">
+      <c r="BU5" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="BV5" s="6" t="s">
+      <c r="BV5" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="BW5" s="6" t="s">
+      <c r="BW5" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="BX5" s="6" t="s">
+      <c r="BX5" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="BY5" s="6" t="s">
+      <c r="BY5" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="BZ5" s="6" t="s">
+      <c r="BZ5" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="CA5" s="6" t="s">
+      <c r="CA5" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="CB5" s="6" t="s">
+      <c r="CB5" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="CC5" s="6" t="s">
+      <c r="CC5" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="CD5" s="6" t="s">
+      <c r="CD5" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="CE5" s="6" t="s">
+      <c r="CE5" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="CF5" s="6" t="s">
+      <c r="CF5" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="CG5" s="6" t="s">
+      <c r="CG5" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="CH5" s="6" t="s">
+      <c r="CH5" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="CI5" s="6" t="s">
+      <c r="CI5" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="CJ5" s="6" t="s">
+      <c r="CJ5" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="CK5" s="6" t="s">
+      <c r="CK5" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="CL5" s="6" t="s">
+      <c r="CL5" s="5" t="s">
         <v>129</v>
       </c>
       <c r="CM5" s="2"/>
       <c r="CN5" s="2"/>
-      <c r="CO5" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="CP5" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="CQ5" s="6" t="s">
-        <v>156</v>
+      <c r="CO5" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="CP5" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="CQ5" s="5" t="s">
+        <v>178</v>
       </c>
       <c r="CR5" s="2" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="CS5" s="2" t="s">
-        <v>152</v>
+        <v>182</v>
       </c>
       <c r="CT5" s="2" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="CU5" s="2" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/dataFiles/onboarding/onboardingMH - Negative.xlsx
+++ b/dataFiles/onboarding/onboardingMH - Negative.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="186">
   <si>
     <t>WelcomeOnboarding</t>
   </si>
@@ -540,18 +540,12 @@
     <t>1234567</t>
   </si>
   <si>
-    <t>'Empty</t>
-  </si>
-  <si>
     <t>prabhaautojehg2761@mailinator.com</t>
   </si>
   <si>
     <t>prabhaAutoWjOE6633@mailinator.com</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>prabhaAutonfXU8311@mailinator.com</t>
   </si>
   <si>
@@ -580,6 +574,9 @@
   </si>
   <si>
     <t>Please enter valid first name</t>
+  </si>
+  <si>
+    <t>prabhaAutowLWU9859@mailinator.com</t>
   </si>
 </sst>
 </file>
@@ -1016,8 +1013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CU5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1345,10 +1342,10 @@
         <v>164</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>119</v>
@@ -1617,19 +1614,19 @@
         <v>152</v>
       </c>
       <c r="CQ2" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="CS2" s="2" t="s">
         <v>151</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="CU2" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:99" ht="409.5" x14ac:dyDescent="0.25">
@@ -1643,7 +1640,7 @@
         <v>139</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E3" s="14" t="s">
         <v>119</v>
@@ -1723,8 +1720,8 @@
       <c r="AD3" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="AE3" s="2" t="s">
-        <v>173</v>
+      <c r="AE3" s="5" t="s">
+        <v>162</v>
       </c>
       <c r="AF3" s="2" t="s">
         <v>91</v>
@@ -1912,19 +1909,19 @@
         <v>152</v>
       </c>
       <c r="CQ3" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="CR3" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="CS3" s="2" t="s">
         <v>151</v>
       </c>
       <c r="CT3" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="CU3" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:99" ht="409.5" x14ac:dyDescent="0.25">
@@ -1935,10 +1932,10 @@
         <v>167</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>119</v>
@@ -2018,8 +2015,8 @@
       <c r="AD4" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="AE4" s="2" t="s">
-        <v>173</v>
+      <c r="AE4" s="5" t="s">
+        <v>162</v>
       </c>
       <c r="AF4" s="2" t="s">
         <v>91</v>
@@ -2207,19 +2204,19 @@
         <v>152</v>
       </c>
       <c r="CQ4" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="CR4" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="CS4" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="CT4" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="CR4" s="2" t="s">
+      <c r="CU4" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="CS4" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="CT4" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="CU4" s="2" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:99" ht="409.5" x14ac:dyDescent="0.25">
@@ -2230,10 +2227,10 @@
         <v>166</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="E5" s="14" t="s">
         <v>119</v>
@@ -2313,8 +2310,8 @@
       <c r="AD5" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="AE5" s="2" t="s">
-        <v>173</v>
+      <c r="AE5" s="5" t="s">
+        <v>162</v>
       </c>
       <c r="AF5" s="2" t="s">
         <v>91</v>
@@ -2502,19 +2499,19 @@
         <v>152</v>
       </c>
       <c r="CQ5" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="CR5" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="CS5" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="CT5" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="CR5" s="2" t="s">
+      <c r="CU5" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="CS5" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="CT5" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="CU5" s="2" t="s">
-        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/dataFiles/onboarding/onboardingMH - Negative.xlsx
+++ b/dataFiles/onboarding/onboardingMH - Negative.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="183">
   <si>
     <t>WelcomeOnboarding</t>
   </si>
@@ -441,6 +441,9 @@
     <t>Yes</t>
   </si>
   <si>
+    <t>No</t>
+  </si>
+  <si>
     <t>InvalidCellNumber</t>
   </si>
   <si>
@@ -486,15 +489,27 @@
     <t>InvalidLastNameText</t>
   </si>
   <si>
+    <t>Please enter valid first name</t>
+  </si>
+  <si>
+    <t>Please enter valid last name</t>
+  </si>
+  <si>
     <t>InvalidRelation</t>
   </si>
   <si>
     <t>InvalidRelationCellPhone</t>
   </si>
   <si>
+    <t>Please enter relation</t>
+  </si>
+  <si>
     <t>InvalidRelationText</t>
   </si>
   <si>
+    <t>Please enter valid health card number</t>
+  </si>
+  <si>
     <t>InvalidHomePhoneNumberText</t>
   </si>
   <si>
@@ -534,49 +549,25 @@
     <t>ADgh6465</t>
   </si>
   <si>
+    <t>prabhaAutoLiDk2496@mailinator.com</t>
+  </si>
+  <si>
     <t>1323455</t>
   </si>
   <si>
     <t>1234567</t>
   </si>
   <si>
-    <t>prabhaautojehg2761@mailinator.com</t>
-  </si>
-  <si>
-    <t>prabhaAutoWjOE6633@mailinator.com</t>
-  </si>
-  <si>
-    <t>prabhaAutonfXU8311@mailinator.com</t>
-  </si>
-  <si>
-    <t>Please enter valid first name;</t>
-  </si>
-  <si>
-    <t>Please enter valid last name;</t>
-  </si>
-  <si>
-    <t>Please enter relation;</t>
-  </si>
-  <si>
-    <t>Please enter valid health card number;</t>
-  </si>
-  <si>
-    <t>Please enter valid cell phone number;</t>
-  </si>
-  <si>
-    <t>Please enter valid health card number</t>
-  </si>
-  <si>
-    <t>Please enter relation</t>
-  </si>
-  <si>
-    <t>Please enter valid last name</t>
-  </si>
-  <si>
-    <t>Please enter valid first name</t>
-  </si>
-  <si>
-    <t>prabhaAutowLWU9859@mailinator.com</t>
+    <t>'Empty</t>
+  </si>
+  <si>
+    <t>prabhaAutoFeZd5681@mailinator.com</t>
+  </si>
+  <si>
+    <t>prabhaAutoPQWk6854@mailinator.com</t>
+  </si>
+  <si>
+    <t>prabhaAutoRTqk4947@mailinator.com</t>
   </si>
 </sst>
 </file>
@@ -689,6 +680,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -727,9 +721,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1013,26 +1004,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CU5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="AG1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="BQ5" sqref="A1:CU5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="12"/>
-    <col min="2" max="2" width="18" style="12" customWidth="1"/>
-    <col min="3" max="3" width="29" style="12" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" style="12"/>
-    <col min="7" max="7" width="10.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="97" width="9.140625" style="12"/>
-    <col min="98" max="98" width="19.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="35.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="100" max="16384" width="9.140625" style="12"/>
+    <col min="1" max="97" width="9.140625" style="13"/>
+    <col min="98" max="98" width="19.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="35.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="100" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:99" ht="63" x14ac:dyDescent="0.25">
@@ -1060,14 +1041,14 @@
       <c r="H1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="8" t="s">
-        <v>141</v>
+      <c r="I1" s="9" t="s">
+        <v>142</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="8" t="s">
-        <v>140</v>
+      <c r="K1" s="9" t="s">
+        <v>141</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>4</v>
@@ -1093,32 +1074,32 @@
       <c r="S1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="8" t="s">
-        <v>142</v>
+      <c r="T1" s="9" t="s">
+        <v>143</v>
       </c>
       <c r="U1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="V1" s="8" t="s">
-        <v>143</v>
+      <c r="V1" s="9" t="s">
+        <v>144</v>
       </c>
       <c r="W1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="X1" s="8" t="s">
-        <v>155</v>
+      <c r="X1" s="9" t="s">
+        <v>158</v>
       </c>
       <c r="Y1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Z1" s="8" t="s">
-        <v>144</v>
+      <c r="Z1" s="9" t="s">
+        <v>145</v>
       </c>
       <c r="AA1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AB1" s="8" t="s">
-        <v>163</v>
+      <c r="AB1" s="9" t="s">
+        <v>168</v>
       </c>
       <c r="AC1" s="3" t="s">
         <v>16</v>
@@ -1126,19 +1107,19 @@
       <c r="AD1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AE1" s="8" t="s">
-        <v>161</v>
+      <c r="AE1" s="9" t="s">
+        <v>166</v>
       </c>
       <c r="AF1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AG1" s="9" t="s">
+      <c r="AG1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AH1" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="AI1" s="10" t="s">
+      <c r="AH1" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="AI1" s="11" t="s">
         <v>20</v>
       </c>
       <c r="AJ1" s="3" t="s">
@@ -1156,8 +1137,8 @@
       <c r="AN1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AO1" s="8" t="s">
-        <v>147</v>
+      <c r="AO1" s="9" t="s">
+        <v>148</v>
       </c>
       <c r="AP1" s="3" t="s">
         <v>26</v>
@@ -1255,99 +1236,99 @@
       <c r="BU1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="BV1" s="11" t="s">
+      <c r="BV1" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="BW1" s="11" t="s">
+      <c r="BW1" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="BX1" s="11" t="s">
+      <c r="BX1" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="BY1" s="11" t="s">
+      <c r="BY1" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="BZ1" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="CA1" s="11" t="s">
+      <c r="BZ1" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="CA1" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="CB1" s="11" t="s">
+      <c r="CB1" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="CC1" s="11" t="s">
+      <c r="CC1" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="CD1" s="11" t="s">
+      <c r="CD1" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="CE1" s="11" t="s">
+      <c r="CE1" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="CF1" s="11" t="s">
+      <c r="CF1" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="CG1" s="11" t="s">
+      <c r="CG1" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="CH1" s="11" t="s">
+      <c r="CH1" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="CI1" s="11" t="s">
+      <c r="CI1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="CJ1" s="11" t="s">
+      <c r="CJ1" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="CK1" s="11" t="s">
+      <c r="CK1" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="CL1" s="11" t="s">
+      <c r="CL1" s="12" t="s">
         <v>73</v>
       </c>
       <c r="CM1" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="CN1" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="CO1" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="CP1" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="CO1" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="CP1" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="CQ1" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="CR1" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="CS1" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="CQ1" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="CR1" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="CS1" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="CT1" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="CU1" s="8" t="s">
-        <v>160</v>
+      <c r="CT1" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="CU1" s="9" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:99" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>164</v>
+      <c r="B2" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E2" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>119</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -1359,14 +1340,14 @@
       <c r="H2" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>162</v>
+      <c r="I2" s="6" t="s">
+        <v>167</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>162</v>
+      <c r="K2" s="6" t="s">
+        <v>167</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>77</v>
@@ -1392,32 +1373,32 @@
       <c r="S2" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="T2" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="U2" s="5" t="s">
+      <c r="T2" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="U2" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="V2" s="5" t="s">
-        <v>162</v>
+      <c r="V2" s="6" t="s">
+        <v>167</v>
       </c>
       <c r="W2" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="X2" s="5" t="s">
-        <v>162</v>
+      <c r="X2" s="6" t="s">
+        <v>167</v>
       </c>
       <c r="Y2" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="Z2" s="5" t="s">
-        <v>162</v>
+      <c r="Z2" s="6" t="s">
+        <v>167</v>
       </c>
       <c r="AA2" s="2" t="s">
         <v>77</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="AC2" s="2" t="s">
         <v>89</v>
@@ -1425,8 +1406,8 @@
       <c r="AD2" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="AE2" s="5" t="s">
-        <v>162</v>
+      <c r="AE2" s="6" t="s">
+        <v>167</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>91</v>
@@ -1434,8 +1415,8 @@
       <c r="AG2" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="AH2" s="5" t="s">
-        <v>162</v>
+      <c r="AH2" s="6" t="s">
+        <v>167</v>
       </c>
       <c r="AI2" s="2" t="s">
         <v>93</v>
@@ -1455,8 +1436,8 @@
       <c r="AN2" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="AO2" s="5" t="s">
-        <v>162</v>
+      <c r="AO2" s="6" t="s">
+        <v>167</v>
       </c>
       <c r="AP2" s="2" t="s">
         <v>96</v>
@@ -1500,149 +1481,149 @@
       <c r="BC2" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="BD2" s="15" t="s">
+      <c r="BD2" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="BE2" s="15" t="s">
+      <c r="BE2" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="BF2" s="15" t="s">
+      <c r="BF2" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="BG2" s="15" t="s">
+      <c r="BG2" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="BH2" s="15" t="s">
+      <c r="BH2" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="BI2" s="15" t="s">
+      <c r="BI2" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="BJ2" s="15" t="s">
+      <c r="BJ2" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="BK2" s="15" t="s">
+      <c r="BK2" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="BL2" s="15" t="s">
+      <c r="BL2" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="BM2" s="15" t="s">
+      <c r="BM2" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="BN2" s="15" t="s">
+      <c r="BN2" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="BO2" s="15" t="s">
+      <c r="BO2" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="BP2" s="15" t="s">
+      <c r="BP2" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="BQ2" s="15" t="s">
+      <c r="BQ2" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="BR2" s="15" t="s">
+      <c r="BR2" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="BS2" s="15" t="s">
+      <c r="BS2" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="BT2" s="15" t="s">
+      <c r="BT2" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="BU2" s="15" t="s">
+      <c r="BU2" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="BV2" s="5" t="s">
+      <c r="BV2" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="BW2" s="5" t="s">
+      <c r="BW2" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="BX2" s="5" t="s">
+      <c r="BX2" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="BY2" s="5" t="s">
+      <c r="BY2" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="BZ2" s="5" t="s">
+      <c r="BZ2" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="CA2" s="5" t="s">
+      <c r="CA2" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="CB2" s="5" t="s">
+      <c r="CB2" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="CC2" s="5" t="s">
+      <c r="CC2" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="CD2" s="5" t="s">
+      <c r="CD2" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="CE2" s="5" t="s">
+      <c r="CE2" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="CF2" s="5" t="s">
+      <c r="CF2" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="CG2" s="5" t="s">
+      <c r="CG2" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="CH2" s="5" t="s">
+      <c r="CH2" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="CI2" s="5" t="s">
+      <c r="CI2" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="CJ2" s="5" t="s">
+      <c r="CJ2" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="CK2" s="5" t="s">
+      <c r="CK2" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="CL2" s="5" t="s">
+      <c r="CL2" s="6" t="s">
         <v>129</v>
       </c>
       <c r="CM2" s="2"/>
       <c r="CN2" s="2"/>
-      <c r="CO2" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="CP2" s="5" t="s">
+      <c r="CO2" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="CP2" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="CQ2" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="CR2" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="CS2" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="CQ2" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="CR2" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="CS2" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="CT2" s="2" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="CU2" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:99" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>165</v>
+      <c r="B3" s="8" t="s">
+        <v>170</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="E3" s="14" t="s">
+      <c r="D3" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>119</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -1654,14 +1635,14 @@
       <c r="H3" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>168</v>
+      <c r="I3" s="6" t="s">
+        <v>173</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="K3" s="5" t="s">
-        <v>168</v>
+      <c r="K3" s="6" t="s">
+        <v>173</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>77</v>
@@ -1687,32 +1668,32 @@
       <c r="S3" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="T3" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="U3" s="5" t="s">
+      <c r="T3" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="U3" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="V3" s="5" t="s">
-        <v>168</v>
+      <c r="V3" s="6" t="s">
+        <v>173</v>
       </c>
       <c r="W3" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="X3" s="5" t="s">
-        <v>168</v>
+      <c r="X3" s="6" t="s">
+        <v>173</v>
       </c>
       <c r="Y3" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="Z3" s="5" t="s">
-        <v>168</v>
+      <c r="Z3" s="6" t="s">
+        <v>173</v>
       </c>
       <c r="AA3" s="2" t="s">
         <v>77</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="AC3" s="2" t="s">
         <v>89</v>
@@ -1720,8 +1701,8 @@
       <c r="AD3" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="AE3" s="5" t="s">
-        <v>162</v>
+      <c r="AE3" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="AF3" s="2" t="s">
         <v>91</v>
@@ -1729,8 +1710,8 @@
       <c r="AG3" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="AH3" s="5" t="s">
-        <v>168</v>
+      <c r="AH3" s="6" t="s">
+        <v>173</v>
       </c>
       <c r="AI3" s="2" t="s">
         <v>93</v>
@@ -1750,8 +1731,8 @@
       <c r="AN3" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="AO3" s="5" t="s">
-        <v>168</v>
+      <c r="AO3" s="6" t="s">
+        <v>173</v>
       </c>
       <c r="AP3" s="2" t="s">
         <v>96</v>
@@ -1795,149 +1776,149 @@
       <c r="BC3" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="BD3" s="15" t="s">
+      <c r="BD3" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="BE3" s="15" t="s">
+      <c r="BE3" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="BF3" s="15" t="s">
+      <c r="BF3" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="BG3" s="15" t="s">
+      <c r="BG3" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="BH3" s="15" t="s">
+      <c r="BH3" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="BI3" s="15" t="s">
+      <c r="BI3" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="BJ3" s="15" t="s">
+      <c r="BJ3" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="BK3" s="15" t="s">
+      <c r="BK3" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="BL3" s="15" t="s">
+      <c r="BL3" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="BM3" s="15" t="s">
+      <c r="BM3" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="BN3" s="15" t="s">
+      <c r="BN3" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="BO3" s="15" t="s">
+      <c r="BO3" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="BP3" s="15" t="s">
+      <c r="BP3" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="BQ3" s="15" t="s">
+      <c r="BQ3" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="BR3" s="15" t="s">
+      <c r="BR3" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="BS3" s="15" t="s">
+      <c r="BS3" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="BT3" s="15" t="s">
+      <c r="BT3" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="BU3" s="15" t="s">
+      <c r="BU3" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="BV3" s="5" t="s">
+      <c r="BV3" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="BW3" s="5" t="s">
+      <c r="BW3" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="BX3" s="5" t="s">
+      <c r="BX3" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="BY3" s="5" t="s">
+      <c r="BY3" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="BZ3" s="5" t="s">
+      <c r="BZ3" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="CA3" s="5" t="s">
+      <c r="CA3" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="CB3" s="5" t="s">
+      <c r="CB3" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="CC3" s="5" t="s">
+      <c r="CC3" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="CD3" s="5" t="s">
+      <c r="CD3" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="CE3" s="5" t="s">
+      <c r="CE3" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="CF3" s="5" t="s">
+      <c r="CF3" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="CG3" s="5" t="s">
+      <c r="CG3" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="CH3" s="5" t="s">
+      <c r="CH3" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="CI3" s="5" t="s">
+      <c r="CI3" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="CJ3" s="5" t="s">
+      <c r="CJ3" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="CK3" s="5" t="s">
+      <c r="CK3" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="CL3" s="5" t="s">
+      <c r="CL3" s="6" t="s">
         <v>129</v>
       </c>
       <c r="CM3" s="2"/>
       <c r="CN3" s="2"/>
-      <c r="CO3" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="CP3" s="5" t="s">
+      <c r="CO3" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="CP3" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="CQ3" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="CR3" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="CS3" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="CQ3" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="CR3" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="CS3" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="CT3" s="2" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="CU3" s="2" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:99" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>167</v>
+      <c r="B4" s="8" t="s">
+        <v>172</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="E4" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="E4" s="15" t="s">
         <v>119</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -1949,13 +1930,13 @@
       <c r="H4" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="6" t="s">
         <v>84</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="6" t="s">
         <v>84</v>
       </c>
       <c r="L4" s="1" t="s">
@@ -1982,32 +1963,32 @@
       <c r="S4" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="T4" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="U4" s="5" t="s">
+      <c r="U4" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="V4" s="5" t="s">
-        <v>172</v>
+      <c r="V4" s="6" t="s">
+        <v>178</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="X4" s="5" t="s">
-        <v>171</v>
+      <c r="X4" s="6" t="s">
+        <v>177</v>
       </c>
       <c r="Y4" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="Z4" s="5" t="s">
+      <c r="Z4" s="6" t="s">
         <v>84</v>
       </c>
       <c r="AA4" s="2" t="s">
         <v>77</v>
       </c>
       <c r="AB4" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="AC4" s="2" t="s">
         <v>89</v>
@@ -2015,8 +1996,8 @@
       <c r="AD4" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="AE4" s="5" t="s">
-        <v>162</v>
+      <c r="AE4" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="AF4" s="2" t="s">
         <v>91</v>
@@ -2024,7 +2005,7 @@
       <c r="AG4" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="AH4" s="5" t="s">
+      <c r="AH4" s="6" t="s">
         <v>84</v>
       </c>
       <c r="AI4" s="2" t="s">
@@ -2045,7 +2026,7 @@
       <c r="AN4" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="AO4" s="5" t="s">
+      <c r="AO4" s="6" t="s">
         <v>84</v>
       </c>
       <c r="AP4" s="2" t="s">
@@ -2090,149 +2071,149 @@
       <c r="BC4" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="BD4" s="15" t="s">
+      <c r="BD4" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="BE4" s="15" t="s">
+      <c r="BE4" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="BF4" s="15" t="s">
+      <c r="BF4" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="BG4" s="15" t="s">
+      <c r="BG4" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="BH4" s="15" t="s">
+      <c r="BH4" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="BI4" s="15" t="s">
+      <c r="BI4" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="BJ4" s="15" t="s">
+      <c r="BJ4" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="BK4" s="15" t="s">
+      <c r="BK4" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="BL4" s="15" t="s">
+      <c r="BL4" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="BM4" s="15" t="s">
+      <c r="BM4" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="BN4" s="15" t="s">
+      <c r="BN4" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="BO4" s="15" t="s">
+      <c r="BO4" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="BP4" s="15" t="s">
+      <c r="BP4" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="BQ4" s="15" t="s">
+      <c r="BQ4" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="BR4" s="15" t="s">
+      <c r="BR4" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="BS4" s="15" t="s">
+      <c r="BS4" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="BT4" s="15" t="s">
+      <c r="BT4" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="BU4" s="15" t="s">
+      <c r="BU4" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="BV4" s="5" t="s">
+      <c r="BV4" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="BW4" s="5" t="s">
+      <c r="BW4" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="BX4" s="5" t="s">
+      <c r="BX4" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="BY4" s="5" t="s">
+      <c r="BY4" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="BZ4" s="5" t="s">
+      <c r="BZ4" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="CA4" s="5" t="s">
+      <c r="CA4" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="CB4" s="5" t="s">
+      <c r="CB4" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="CC4" s="5" t="s">
+      <c r="CC4" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="CD4" s="5" t="s">
+      <c r="CD4" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="CE4" s="5" t="s">
+      <c r="CE4" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="CF4" s="5" t="s">
+      <c r="CF4" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="CG4" s="5" t="s">
+      <c r="CG4" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="CH4" s="5" t="s">
+      <c r="CH4" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="CI4" s="5" t="s">
+      <c r="CI4" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="CJ4" s="5" t="s">
+      <c r="CJ4" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="CK4" s="5" t="s">
+      <c r="CK4" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="CL4" s="5" t="s">
+      <c r="CL4" s="6" t="s">
         <v>129</v>
       </c>
       <c r="CM4" s="2"/>
       <c r="CN4" s="2"/>
-      <c r="CO4" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="CP4" s="5" t="s">
+      <c r="CO4" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="CP4" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="CQ4" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="CR4" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="CS4" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="CQ4" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="CR4" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="CS4" s="2" t="s">
-        <v>180</v>
-      </c>
       <c r="CT4" s="2" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="CU4" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:99" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>166</v>
+      <c r="B5" s="8" t="s">
+        <v>171</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="E5" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>119</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -2244,14 +2225,14 @@
       <c r="H5" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="I5" s="5" t="s">
-        <v>169</v>
+      <c r="I5" s="6" t="s">
+        <v>174</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="K5" s="5" t="s">
-        <v>169</v>
+      <c r="K5" s="6" t="s">
+        <v>174</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>77</v>
@@ -2277,32 +2258,32 @@
       <c r="S5" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="T5" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="U5" s="5" t="s">
+      <c r="T5" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="U5" s="6" t="s">
         <v>85</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="X5" s="5" t="s">
-        <v>162</v>
+      <c r="X5" s="6" t="s">
+        <v>167</v>
       </c>
       <c r="Y5" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="Z5" s="5" t="s">
+      <c r="Z5" s="6" t="s">
         <v>88</v>
       </c>
       <c r="AA5" s="2" t="s">
         <v>77</v>
       </c>
       <c r="AB5" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="AC5" s="2" t="s">
         <v>89</v>
@@ -2310,8 +2291,8 @@
       <c r="AD5" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="AE5" s="5" t="s">
-        <v>162</v>
+      <c r="AE5" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="AF5" s="2" t="s">
         <v>91</v>
@@ -2319,8 +2300,8 @@
       <c r="AG5" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="AH5" s="5" t="s">
-        <v>169</v>
+      <c r="AH5" s="6" t="s">
+        <v>174</v>
       </c>
       <c r="AI5" s="2" t="s">
         <v>93</v>
@@ -2340,8 +2321,8 @@
       <c r="AN5" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="AO5" s="5" t="s">
-        <v>169</v>
+      <c r="AO5" s="6" t="s">
+        <v>174</v>
       </c>
       <c r="AP5" s="2" t="s">
         <v>96</v>
@@ -2385,133 +2366,133 @@
       <c r="BC5" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="BD5" s="15" t="s">
+      <c r="BD5" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="BE5" s="15" t="s">
+      <c r="BE5" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="BF5" s="15" t="s">
+      <c r="BF5" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="BG5" s="15" t="s">
+      <c r="BG5" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="BH5" s="15" t="s">
+      <c r="BH5" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="BI5" s="15" t="s">
+      <c r="BI5" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="BJ5" s="15" t="s">
+      <c r="BJ5" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="BK5" s="15" t="s">
+      <c r="BK5" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="BL5" s="15" t="s">
+      <c r="BL5" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="BM5" s="15" t="s">
+      <c r="BM5" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="BN5" s="15" t="s">
+      <c r="BN5" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="BO5" s="15" t="s">
+      <c r="BO5" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="BP5" s="15" t="s">
+      <c r="BP5" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="BQ5" s="15" t="s">
+      <c r="BQ5" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="BR5" s="15" t="s">
+      <c r="BR5" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="BS5" s="15" t="s">
+      <c r="BS5" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="BT5" s="15" t="s">
+      <c r="BT5" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="BU5" s="15" t="s">
+      <c r="BU5" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="BV5" s="5" t="s">
+      <c r="BV5" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="BW5" s="5" t="s">
+      <c r="BW5" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="BX5" s="5" t="s">
+      <c r="BX5" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="BY5" s="5" t="s">
+      <c r="BY5" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="BZ5" s="5" t="s">
+      <c r="BZ5" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="CA5" s="5" t="s">
+      <c r="CA5" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="CB5" s="5" t="s">
+      <c r="CB5" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="CC5" s="5" t="s">
+      <c r="CC5" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="CD5" s="5" t="s">
+      <c r="CD5" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="CE5" s="5" t="s">
+      <c r="CE5" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="CF5" s="5" t="s">
+      <c r="CF5" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="CG5" s="5" t="s">
+      <c r="CG5" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="CH5" s="5" t="s">
+      <c r="CH5" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="CI5" s="5" t="s">
+      <c r="CI5" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="CJ5" s="5" t="s">
+      <c r="CJ5" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="CK5" s="5" t="s">
+      <c r="CK5" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="CL5" s="5" t="s">
+      <c r="CL5" s="6" t="s">
         <v>129</v>
       </c>
       <c r="CM5" s="2"/>
       <c r="CN5" s="2"/>
-      <c r="CO5" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="CP5" s="5" t="s">
+      <c r="CO5" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="CP5" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="CQ5" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="CR5" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="CS5" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="CQ5" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="CR5" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="CS5" s="2" t="s">
-        <v>180</v>
-      </c>
       <c r="CT5" s="2" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="CU5" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
